--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-29_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-29_valid.xlsx
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>433.6134453781513</v>
+        <v>437.1428571428571</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.5101334651507662</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.5175878314712614</v>
+        <v>0.5187185354691077</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>3236</v>
+        <v>3252</v>
       </c>
       <c r="O56">
         <v>538</v>
@@ -19008,7 +19008,7 @@
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>606.7499999999999</v>
+        <v>609.7499999999999</v>
       </c>
       <c r="BA56">
         <v>474.7058823529412</v>
@@ -19122,7 +19122,7 @@
         <v>0</v>
       </c>
       <c r="CL56">
-        <v>0.7138235294117645</v>
+        <v>0.7173529411764704</v>
       </c>
       <c r="CM56">
         <v>0.5933823529411765</v>
@@ -19167,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.7034132959040449</v>
+        <v>0.7058632129641443</v>
       </c>
     </row>
     <row r="57" spans="1:105">
